--- a/GenerateApp/tables_long_horiz/Data/3/source.xlsx
+++ b/GenerateApp/tables_long_horiz/Data/3/source.xlsx
@@ -16,34 +16,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>Emerson Electric Company</t>
-  </si>
-  <si>
-    <t>Mattel Inc.</t>
-  </si>
-  <si>
-    <t>Progressive Corp.</t>
-  </si>
-  <si>
-    <t>Skyworks Solutions</t>
-  </si>
-  <si>
-    <t>American Water Works Company Inc</t>
-  </si>
-  <si>
-    <t>Hasbro Inc.</t>
-  </si>
-  <si>
-    <t>Newell Brands</t>
-  </si>
-  <si>
-    <t>Dr Pepper Snapple Group</t>
-  </si>
-  <si>
-    <t>Microchip Technology</t>
-  </si>
-  <si>
-    <t>Mohawk Industries</t>
+    <t>KLA-Tencor Corp.</t>
+  </si>
+  <si>
+    <t>Zoetis</t>
+  </si>
+  <si>
+    <t>Perrigo</t>
+  </si>
+  <si>
+    <t>Textron Inc.</t>
+  </si>
+  <si>
+    <t>Zions Bancorp</t>
+  </si>
+  <si>
+    <t>Regency Centers Corporation</t>
+  </si>
+  <si>
+    <t>Chevron Corp.</t>
+  </si>
+  <si>
+    <t>O'Reilly Automotive</t>
+  </si>
+  <si>
+    <t>Halliburton Co.</t>
+  </si>
+  <si>
+    <t>Celgene Corp.</t>
   </si>
 </sst>
 </file>
@@ -104,7 +104,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:srgbClr val="800080"/>
             </a:solidFill>
           </c:spPr>
           <c:cat>
@@ -113,34 +113,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Emerson Electric Company</c:v>
+                  <c:v>KLA-Tencor Corp.</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Mattel Inc.</c:v>
+                  <c:v>Zoetis</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Progressive Corp.</c:v>
+                  <c:v>Perrigo</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Skyworks Solutions</c:v>
+                  <c:v>Textron Inc.</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>American Water Works Company Inc</c:v>
+                  <c:v>Zions Bancorp</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Hasbro Inc.</c:v>
+                  <c:v>Regency Centers Corporation</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Newell Brands</c:v>
+                  <c:v>Chevron Corp.</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Dr Pepper Snapple Group</c:v>
+                  <c:v>O'Reilly Automotive</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Microchip Technology</c:v>
+                  <c:v>Halliburton Co.</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Mohawk Industries</c:v>
+                  <c:v>Celgene Corp.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -152,34 +152,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>667</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>292</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>833</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>885</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>559</c:v>
+                  <c:v>301</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>335</c:v>
+                  <c:v>373</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>630</c:v>
+                  <c:v>397</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>959</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>520</c:v>
+                  <c:v>327</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>686</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -196,11 +196,13 @@
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
+          <a:bodyPr rot="-5400000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="650" baseline="0"/>
+              <a:defRPr sz="650" baseline="0">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -253,10 +255,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -574,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>667</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -582,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>292</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -590,7 +592,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>833</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -598,7 +600,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>885</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -606,7 +608,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>559</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -614,7 +616,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>335</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -622,7 +624,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>630</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -630,7 +632,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>959</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -638,7 +640,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>520</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -646,7 +648,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>686</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
